--- a/ripple/chess13a_analysis/085_ver2.xlsx
+++ b/ripple/chess13a_analysis/085_ver2.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="382" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="382" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="everything" sheetId="1" r:id="rId1"/>
     <sheet name="cleaned up" sheetId="2" r:id="rId2"/>
     <sheet name="final version" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>h</t>
   </si>
@@ -497,43 +496,43 @@
   <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" customWidth="1"/>
-    <col min="20" max="20" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="20" max="20" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5">
+    <row r="1" spans="1:23">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13.5">
+    <row r="2" spans="1:23">
       <c r="M2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
@@ -608,7 +607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="13.5">
+    <row r="4" spans="1:23">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -652,7 +651,7 @@
       </c>
       <c r="M4" s="2">
         <f t="shared" ref="M4:M19" si="4">L4/L$5*10000</f>
-        <v>4928.7003494251576</v>
+        <v>5240.5208767684053</v>
       </c>
       <c r="N4" s="3">
         <v>60.8</v>
@@ -674,7 +673,7 @@
       </c>
       <c r="S4" s="7">
         <f t="shared" ref="S4:S14" si="7">V4/R4</f>
-        <v>0.84578605831695153</v>
+        <v>0.87213063538165025</v>
       </c>
       <c r="T4" s="3">
         <v>1</v>
@@ -684,13 +683,13 @@
       </c>
       <c r="V4" s="10">
         <f t="shared" ref="V4:V19" si="8">SQRT(M4)</f>
-        <v>70.204703185934477</v>
+        <v>72.391442013323683</v>
       </c>
       <c r="W4" s="11">
         <v>60.8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="13.5">
+    <row r="5" spans="1:23">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -708,7 +707,7 @@
         <v>0.109</v>
       </c>
       <c r="F5" s="3">
-        <v>180818</v>
+        <v>170059</v>
       </c>
       <c r="G5" s="7">
         <f>C5</f>
@@ -730,7 +729,7 @@
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>71177.905381003977</v>
+        <v>66942.690501986275</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="4"/>
@@ -772,7 +771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="13.5">
+    <row r="6" spans="1:23">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -816,7 +815,7 @@
       </c>
       <c r="M6" s="2">
         <f t="shared" si="4"/>
-        <v>1695.7076202188935</v>
+        <v>1802.9887302215109</v>
       </c>
       <c r="N6" s="3">
         <v>26.9</v>
@@ -838,7 +837,7 @@
       </c>
       <c r="S6" s="7">
         <f t="shared" si="7"/>
-        <v>1.3785097971964855</v>
+        <v>1.4214476740148283</v>
       </c>
       <c r="T6" s="3">
         <v>1</v>
@@ -848,13 +847,13 @@
       </c>
       <c r="V6" s="10">
         <f t="shared" si="8"/>
-        <v>41.178970606595954</v>
+        <v>42.461614785845235</v>
       </c>
       <c r="W6" s="11">
         <v>26.9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="13.5">
+    <row r="7" spans="1:23">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -898,7 +897,7 @@
       </c>
       <c r="M7" s="2">
         <f t="shared" si="4"/>
-        <v>77.193661818569225</v>
+        <v>82.077417500456008</v>
       </c>
       <c r="N7" s="3">
         <v>7.6</v>
@@ -921,7 +920,7 @@
       </c>
       <c r="S7" s="7">
         <f t="shared" si="7"/>
-        <v>1.0410243294862862</v>
+        <v>1.0734501958205598</v>
       </c>
       <c r="T7" s="3">
         <v>1</v>
@@ -931,13 +930,13 @@
       </c>
       <c r="V7" s="10">
         <f t="shared" si="8"/>
-        <v>8.7859923639034214</v>
+        <v>9.0596587960284687</v>
       </c>
       <c r="W7" s="11">
         <v>7.6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="13.5">
+    <row r="8" spans="1:23">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -955,7 +954,7 @@
         <v>0.22361797781037193</v>
       </c>
       <c r="F8" s="3">
-        <v>49.2</v>
+        <v>45.7</v>
       </c>
       <c r="G8" s="7">
         <f>4*PI()*PI()*ABS(D8)/C8/1.175</f>
@@ -977,11 +976,11 @@
       </c>
       <c r="L8" s="2">
         <f t="shared" si="3"/>
-        <v>2299.5202473395966</v>
+        <v>2135.9364899069019</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="4"/>
-        <v>323.06658014599213</v>
+        <v>319.06941204335459</v>
       </c>
       <c r="N8" s="3">
         <v>15.1</v>
@@ -1004,7 +1003,7 @@
       </c>
       <c r="S8" s="7">
         <f t="shared" si="7"/>
-        <v>1.0718961724446503</v>
+        <v>1.0652444715043969</v>
       </c>
       <c r="T8" s="3">
         <v>2</v>
@@ -1014,13 +1013,13 @@
       </c>
       <c r="V8" s="10">
         <f t="shared" si="8"/>
-        <v>17.974052969377613</v>
+        <v>17.862514157960927</v>
       </c>
       <c r="W8" s="11">
         <v>15.1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.5">
+    <row r="9" spans="1:23">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -1038,7 +1037,7 @@
         <v>0.21651789764358972</v>
       </c>
       <c r="F9" s="3">
-        <v>1818</v>
+        <v>1790</v>
       </c>
       <c r="G9" s="7">
         <f>4*PI()*PI()*ABS(D9)/C9/1.175</f>
@@ -1060,11 +1059,11 @@
       </c>
       <c r="L9" s="2">
         <f t="shared" si="3"/>
-        <v>41160.614328566735</v>
+        <v>40526.677474221367</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="4"/>
-        <v>5782.7796572883863</v>
+        <v>6053.9361609642638</v>
       </c>
       <c r="N9" s="3">
         <v>71.2</v>
@@ -1087,7 +1086,7 @@
       </c>
       <c r="S9" s="7">
         <f t="shared" si="7"/>
-        <v>0.96177166677114501</v>
+        <v>0.98406225698446281</v>
       </c>
       <c r="T9" s="3">
         <v>2</v>
@@ -1097,13 +1096,13 @@
       </c>
       <c r="V9" s="10">
         <f t="shared" si="8"/>
-        <v>76.044589927807394</v>
+        <v>77.807044417355058</v>
       </c>
       <c r="W9" s="11">
         <v>71.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13.5">
+    <row r="10" spans="1:23">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>0.218</v>
       </c>
       <c r="F10" s="3">
-        <v>10200</v>
+        <v>10164</v>
       </c>
       <c r="G10" s="7">
         <f>C10</f>
@@ -1143,11 +1142,11 @@
       </c>
       <c r="L10" s="2">
         <f t="shared" si="3"/>
-        <v>5882.539682539682</v>
+        <v>5861.7777777777774</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="4"/>
-        <v>826.45585748152962</v>
+        <v>875.64119903484482</v>
       </c>
       <c r="N10" s="3">
         <v>39.700000000000003</v>
@@ -1170,7 +1169,7 @@
       </c>
       <c r="S10" s="7">
         <f t="shared" si="7"/>
-        <v>0.65208314460891992</v>
+        <v>0.67120662884720295</v>
       </c>
       <c r="T10" s="3">
         <v>2</v>
@@ -1180,13 +1179,13 @@
       </c>
       <c r="V10" s="10">
         <f t="shared" si="8"/>
-        <v>28.74814528767951</v>
+        <v>29.591235172510878</v>
       </c>
       <c r="W10" s="11">
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.5">
+    <row r="11" spans="1:23">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>0.22808989455914089</v>
       </c>
       <c r="F11" s="3">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" ref="G11:G18" si="11">4*PI()*PI()*ABS(D11)/C11/1.175</f>
@@ -1226,11 +1225,11 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" si="3"/>
-        <v>11102.841354784179</v>
+        <v>10820.22357484422</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="4"/>
-        <v>1559.8718865569926</v>
+        <v>1616.3413053323827</v>
       </c>
       <c r="N11" s="3">
         <v>33.9</v>
@@ -1253,7 +1252,7 @@
       </c>
       <c r="S11" s="7">
         <f t="shared" si="7"/>
-        <v>1.0491278537409379</v>
+        <v>1.0679489367738919</v>
       </c>
       <c r="T11" s="3">
         <v>2</v>
@@ -1263,13 +1262,13 @@
       </c>
       <c r="V11" s="10">
         <f t="shared" si="8"/>
-        <v>39.495213463874236</v>
+        <v>40.203747404096333</v>
       </c>
       <c r="W11" s="11">
         <v>33.9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13.5">
+    <row r="12" spans="1:23">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>0.2464893506827425</v>
       </c>
       <c r="F12" s="3">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="11"/>
@@ -1309,11 +1308,11 @@
       </c>
       <c r="L12" s="2">
         <f t="shared" si="3"/>
-        <v>4323.9568755797391</v>
+        <v>4246.7433599443866</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="4"/>
-        <v>607.48582758010195</v>
+        <v>634.38492359645761</v>
       </c>
       <c r="N12" s="3">
         <v>22.7</v>
@@ -1336,7 +1335,7 @@
       </c>
       <c r="S12" s="7">
         <f t="shared" si="7"/>
-        <v>0.97774559551163553</v>
+        <v>0.99915811418947487</v>
       </c>
       <c r="T12" s="3">
         <v>2</v>
@@ -1346,13 +1345,13 @@
       </c>
       <c r="V12" s="10">
         <f t="shared" si="8"/>
-        <v>24.647227584052978</v>
+        <v>25.186999098671077</v>
       </c>
       <c r="W12" s="11">
         <v>22.7</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="13.5">
+    <row r="13" spans="1:23">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>0.26983328186122629</v>
       </c>
       <c r="F13" s="3">
-        <v>27</v>
+        <v>26.3</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="11"/>
@@ -1392,11 +1391,11 @@
       </c>
       <c r="L13" s="2">
         <f t="shared" si="3"/>
-        <v>1523.9895475243468</v>
+        <v>1484.4787074033452</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="4"/>
-        <v>214.10991786941099</v>
+        <v>221.75366664704026</v>
       </c>
       <c r="N13" s="3">
         <v>14.2</v>
@@ -1419,7 +1418,7 @@
       </c>
       <c r="S13" s="7">
         <f t="shared" si="7"/>
-        <v>0.92792675780214262</v>
+        <v>0.94434505517732992</v>
       </c>
       <c r="T13" s="3">
         <v>2</v>
@@ -1429,13 +1428,13 @@
       </c>
       <c r="V13" s="10">
         <f t="shared" si="8"/>
-        <v>14.632495271463817</v>
+        <v>14.891395725285131</v>
       </c>
       <c r="W13" s="11">
         <v>14.2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.5">
+    <row r="14" spans="1:23">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>0.29829180344085893</v>
       </c>
       <c r="F14" s="3">
-        <v>8.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="11"/>
@@ -1475,11 +1474,11 @@
       </c>
       <c r="L14" s="2">
         <f t="shared" si="3"/>
-        <v>605.38344692678368</v>
+        <v>627.53162181434891</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="4"/>
-        <v>85.052158206435351</v>
+        <v>93.741619452198336</v>
       </c>
       <c r="N14" s="3">
         <v>7.8</v>
@@ -1502,7 +1501,7 @@
       </c>
       <c r="S14" s="7">
         <f t="shared" si="7"/>
-        <v>1.0647109404648458</v>
+        <v>1.1177772687706331</v>
       </c>
       <c r="T14" s="3">
         <v>2</v>
@@ -1512,13 +1511,13 @@
       </c>
       <c r="V14" s="10">
         <f t="shared" si="8"/>
-        <v>9.2223726993889894</v>
+        <v>9.6820255862189466</v>
       </c>
       <c r="W14" s="11">
         <v>7.8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="13.5">
+    <row r="15" spans="1:23">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -1562,7 +1561,7 @@
       </c>
       <c r="M15" s="2">
         <f t="shared" si="4"/>
-        <v>31.720019905293832</v>
+        <v>33.726827508308411</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="2">
@@ -1590,11 +1589,11 @@
       </c>
       <c r="V15" s="10">
         <f t="shared" si="8"/>
-        <v>5.6320529032754862</v>
+        <v>5.8074803063211853</v>
       </c>
       <c r="W15" s="11"/>
     </row>
-    <row r="16" spans="1:23" ht="13.5">
+    <row r="16" spans="1:23">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -1638,7 +1637,7 @@
       </c>
       <c r="M16" s="2">
         <f t="shared" si="4"/>
-        <v>16.934422033863878</v>
+        <v>18.005799888974995</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="2"/>
@@ -1650,11 +1649,11 @@
       <c r="U16" s="3"/>
       <c r="V16" s="10">
         <f t="shared" si="8"/>
-        <v>4.1151454450436962</v>
+        <v>4.2433241555383194</v>
       </c>
       <c r="W16" s="11"/>
     </row>
-    <row r="17" spans="1:24" ht="13.5">
+    <row r="17" spans="1:24">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>0.32582971012478285</v>
       </c>
       <c r="F17" s="3">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="11"/>
@@ -1694,11 +1693,11 @@
       </c>
       <c r="L17" s="2">
         <f t="shared" si="3"/>
-        <v>7845.5380114582076</v>
+        <v>7331.0765025101282</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="4"/>
-        <v>1102.243451737206</v>
+        <v>1095.1272569919499</v>
       </c>
       <c r="N17" s="3">
         <v>29.3</v>
@@ -1721,7 +1720,7 @@
       </c>
       <c r="S17" s="7">
         <f>V17/R17</f>
-        <v>1.0203632151191682</v>
+        <v>1.0170640977931897</v>
       </c>
       <c r="T17" s="3">
         <v>3</v>
@@ -1731,13 +1730,13 @@
       </c>
       <c r="V17" s="10">
         <f t="shared" si="8"/>
-        <v>33.200051983953365</v>
+        <v>33.092707006105591</v>
       </c>
       <c r="W17" s="11">
         <v>29.3</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.5">
+    <row r="18" spans="1:24">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>0.32386725675807365</v>
       </c>
       <c r="F18" s="3">
-        <v>1205</v>
+        <v>1184</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="11"/>
@@ -1777,11 +1776,11 @@
       </c>
       <c r="L18" s="2">
         <f t="shared" si="3"/>
-        <v>14985.931981683396</v>
+        <v>14724.766362085591</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="4"/>
-        <v>2105.4190765331027</v>
+        <v>2199.6077916301688</v>
       </c>
       <c r="N18" s="3">
         <v>44.2</v>
@@ -1804,7 +1803,7 @@
       </c>
       <c r="S18" s="7">
         <f>V18/R18</f>
-        <v>0.93482573071308084</v>
+        <v>0.9555072916041657</v>
       </c>
       <c r="T18" s="3">
         <v>3</v>
@@ -1814,13 +1813,13 @@
       </c>
       <c r="V18" s="10">
         <f t="shared" si="8"/>
-        <v>45.884845826624534</v>
+        <v>46.8999764566057</v>
       </c>
       <c r="W18" s="11">
         <v>44.2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.5">
+    <row r="19" spans="1:24">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="F19" s="3">
-        <v>1566</v>
+        <v>1454</v>
       </c>
       <c r="G19" s="7">
         <f>C19</f>
@@ -1860,11 +1859,11 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" si="3"/>
-        <v>1234.3230174081241</v>
+        <v>1146.0444874274663</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="4"/>
-        <v>173.41378771979728</v>
+        <v>171.19785279521466</v>
       </c>
       <c r="N19" s="3">
         <v>12</v>
@@ -1887,7 +1886,7 @@
       </c>
       <c r="S19" s="7">
         <f>V19/R19</f>
-        <v>0.98819855904423803</v>
+        <v>0.98186450620900467</v>
       </c>
       <c r="T19" s="3">
         <v>3</v>
@@ -1897,13 +1896,13 @@
       </c>
       <c r="V19" s="10">
         <f t="shared" si="8"/>
-        <v>13.168666892278704</v>
+        <v>13.08425973432256</v>
       </c>
       <c r="W19" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.5">
+    <row r="20" spans="1:24">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -1970,7 +1969,7 @@
       <c r="V20" s="10"/>
       <c r="W20" s="11"/>
     </row>
-    <row r="21" spans="1:24" ht="13.5">
+    <row r="21" spans="1:24">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>0.34973847372000699</v>
       </c>
       <c r="F21" s="3">
-        <v>32.4</v>
+        <v>30.9</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="12"/>
@@ -2010,11 +2009,11 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" si="3"/>
-        <v>737.61509073506477</v>
+        <v>703.46624394177479</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" ref="M21:M31" si="13">L21/L$5*10000</f>
-        <v>103.6297832574208</v>
+        <v>105.08484775061468</v>
       </c>
       <c r="N21" s="3">
         <v>10.5</v>
@@ -2037,7 +2036,7 @@
       </c>
       <c r="S21" s="7">
         <f>V21/R21</f>
-        <v>0.87304503338946338</v>
+        <v>0.87915287530066066</v>
       </c>
       <c r="T21" s="3">
         <v>3</v>
@@ -2047,13 +2046,13 @@
       </c>
       <c r="V21" s="10">
         <f t="shared" ref="V21:V31" si="14">SQRT(M21)</f>
-        <v>10.179871475486358</v>
+        <v>10.251090076212124</v>
       </c>
       <c r="W21" s="11">
         <v>10.5</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.5">
+    <row r="22" spans="1:24">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>0.36832865758721517</v>
       </c>
       <c r="F22" s="3">
-        <v>39.1</v>
+        <v>40</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="12"/>
@@ -2093,11 +2092,11 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" si="3"/>
-        <v>1311.9986937982037</v>
+        <v>1342.1981522232261</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="13"/>
-        <v>184.32667929398653</v>
+        <v>200.49958287580353</v>
       </c>
       <c r="N22" s="3">
         <v>14.9</v>
@@ -2120,7 +2119,7 @@
       </c>
       <c r="S22" s="7">
         <f>V22/R22</f>
-        <v>0.82052436441574006</v>
+        <v>0.85576420836358458</v>
       </c>
       <c r="T22" s="3">
         <v>3</v>
@@ -2130,13 +2129,13 @@
       </c>
       <c r="V22" s="10">
         <f t="shared" si="14"/>
-        <v>13.57669618478614</v>
+        <v>14.159787529331206</v>
       </c>
       <c r="W22" s="11">
         <v>14.9</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.5">
+    <row r="23" spans="1:24">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -2154,7 +2153,7 @@
         <v>0.39177544588705399</v>
       </c>
       <c r="F23" s="3">
-        <v>27.7</v>
+        <v>28.4</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="12"/>
@@ -2176,11 +2175,11 @@
       </c>
       <c r="L23" s="2">
         <f t="shared" si="3"/>
-        <v>1199.2758655234204</v>
+        <v>1229.5824758435069</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="13"/>
-        <v>168.48990695973532</v>
+        <v>183.67688340925343</v>
       </c>
       <c r="N23" s="3">
         <v>10</v>
@@ -2203,7 +2202,7 @@
       </c>
       <c r="S23" s="7">
         <f>V23/R23</f>
-        <v>1.1688817970763741</v>
+        <v>1.2204244538543285</v>
       </c>
       <c r="T23" s="3">
         <v>3</v>
@@ -2213,13 +2212,13 @@
       </c>
       <c r="V23" s="10">
         <f t="shared" si="14"/>
-        <v>12.980366210540261</v>
+        <v>13.552744497305829</v>
       </c>
       <c r="W23" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="13.5">
+    <row r="24" spans="1:24">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>0.41759909003732276</v>
       </c>
       <c r="F24" s="3">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="12"/>
@@ -2259,11 +2258,11 @@
       </c>
       <c r="L24" s="2">
         <f t="shared" si="3"/>
-        <v>649.18549161302462</v>
+        <v>665.14906927564016</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="13"/>
-        <v>91.20604043319878</v>
+        <v>99.360970449179106</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="2">
@@ -2291,12 +2290,12 @@
       </c>
       <c r="V24" s="2">
         <f t="shared" si="14"/>
-        <v>9.5501853611958119</v>
+        <v>9.9679973138629556</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="13.5">
+    <row r="25" spans="1:24">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>0.44616140577149882</v>
       </c>
       <c r="F25" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="12"/>
@@ -2336,11 +2335,11 @@
       </c>
       <c r="L25" s="2">
         <f t="shared" si="3"/>
-        <v>219.80618473908839</v>
+        <v>251.20706827324389</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="13"/>
-        <v>30.881238154241959</v>
+        <v>37.525690465905349</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="2"/>
@@ -2356,12 +2355,12 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" si="14"/>
-        <v>5.5570890000288786</v>
+        <v>6.1258216155798522</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="13.5">
+    <row r="26" spans="1:24">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>0.43667048184201473</v>
       </c>
       <c r="F26" s="3">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="12"/>
@@ -2401,11 +2400,11 @@
       </c>
       <c r="L26" s="2">
         <f t="shared" si="3"/>
-        <v>3771.0850021113624</v>
+        <v>3664.8572555730138</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="13"/>
-        <v>529.8111797369346</v>
+        <v>547.46190033462619</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2421,11 +2420,11 @@
       </c>
       <c r="V26" s="2">
         <f t="shared" si="14"/>
-        <v>23.017627587067583</v>
+        <v>23.397903759410291</v>
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="13.5">
+    <row r="27" spans="1:24">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>0.43188534077043261</v>
       </c>
       <c r="F27" s="3">
-        <v>755.4</v>
+        <v>737</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="12"/>
@@ -2465,11 +2464,11 @@
       </c>
       <c r="L27" s="2">
         <f t="shared" si="3"/>
-        <v>13041.667312539108</v>
+        <v>12723.998953324495</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="13"/>
-        <v>1832.2634310084206</v>
+        <v>1900.7301406487327</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -2485,11 +2484,11 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" si="14"/>
-        <v>42.804946338109346</v>
+        <v>43.597363918575773</v>
       </c>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="13.5">
+    <row r="28" spans="1:24">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>0.43146721383800929</v>
       </c>
       <c r="F28" s="3">
-        <v>429.6</v>
+        <v>397</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="12"/>
@@ -2529,11 +2528,11 @@
       </c>
       <c r="L28" s="2">
         <f t="shared" si="3"/>
-        <v>3632.0145254632298</v>
+        <v>3356.400760262808</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="13"/>
-        <v>510.27274629980121</v>
+        <v>501.3842041743481</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -2549,11 +2548,11 @@
       </c>
       <c r="V28" s="2">
         <f t="shared" si="14"/>
-        <v>22.589217478695478</v>
+        <v>22.391610129116398</v>
       </c>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="13.5">
+    <row r="29" spans="1:24">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>0.43506536697007098</v>
       </c>
       <c r="F29" s="3">
-        <v>1917</v>
+        <v>1895</v>
       </c>
       <c r="G29" s="7">
         <f>C29</f>
@@ -2593,11 +2592,11 @@
       </c>
       <c r="L29" s="2">
         <f t="shared" si="3"/>
-        <v>1870.4200683597803</v>
+        <v>1848.9546319988438</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="13"/>
-        <v>262.78099339222189</v>
+        <v>276.19962958375311</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2613,11 +2612,11 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" si="14"/>
-        <v>16.210521070965669</v>
+        <v>16.619254784248092</v>
       </c>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="13.5">
+    <row r="30" spans="1:24">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>0.44309141269042895</v>
       </c>
       <c r="F30" s="3">
-        <v>45.3</v>
+        <v>38.4</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" ref="G30:G38" si="15">4*PI()*PI()*ABS(D30)/C30/1.175</f>
@@ -2657,11 +2656,11 @@
       </c>
       <c r="L30" s="2">
         <f t="shared" si="3"/>
-        <v>369.35161797255063</v>
+        <v>313.09276225487736</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="13"/>
-        <v>51.891330040617284</v>
+        <v>46.770268704032375</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -2677,11 +2676,11 @@
       </c>
       <c r="V30" s="2">
         <f t="shared" si="14"/>
-        <v>7.2035637042103877</v>
+        <v>6.838879199403392</v>
       </c>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="13.5">
+    <row r="31" spans="1:24">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>0.45623971631770233</v>
       </c>
       <c r="F31" s="3">
-        <v>43.6</v>
+        <v>41.3</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="15"/>
@@ -2721,11 +2720,11 @@
       </c>
       <c r="L31" s="2">
         <f t="shared" si="3"/>
-        <v>693.11801579504277</v>
+        <v>656.55445074163447</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="13"/>
-        <v>97.378254120417367</v>
+        <v>98.077093379172382</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -2741,11 +2740,11 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" si="14"/>
-        <v>9.8680420611394517</v>
+        <v>9.9033879747878402</v>
       </c>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="13.5">
+    <row r="32" spans="1:24">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -2783,7 +2782,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" ht="13.5">
+    <row r="33" spans="1:23">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -2801,7 +2800,7 @@
         <v>0.49272653618550721</v>
       </c>
       <c r="F33" s="3">
-        <v>2.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="15"/>
@@ -2823,11 +2822,11 @@
       </c>
       <c r="L33" s="2">
         <f t="shared" si="3"/>
-        <v>65.060885050784762</v>
+        <v>127.0236327181988</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" ref="M33:M46" si="16">L33/L$5*10000</f>
-        <v>9.1406012445188178</v>
+        <v>18.974981699373114</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2843,11 +2842,11 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" ref="V33:V46" si="17">SQRT(M33)</f>
-        <v>3.0233427269363324</v>
+        <v>4.3560282023160859</v>
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="13.5">
+    <row r="34" spans="1:23">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>0.51435757590665054</v>
       </c>
       <c r="F34" s="3">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="15"/>
@@ -2887,11 +2886,11 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" si="3"/>
-        <v>121.84207796108188</v>
+        <v>258.91441566729901</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="16"/>
-        <v>17.117963405762037</v>
+        <v>38.677025635773731</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -2907,11 +2906,11 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" si="17"/>
-        <v>4.1373860595504057</v>
+        <v>6.2190855948261179</v>
       </c>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="13.5">
+    <row r="35" spans="1:23">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>0.53945835340385007</v>
       </c>
       <c r="F35" s="3">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="15"/>
@@ -2951,11 +2950,11 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" si="3"/>
-        <v>45.125708073231728</v>
+        <v>275.26681924671351</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="16"/>
-        <v>6.3398477142142653</v>
+        <v>41.119772328025263</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -2971,11 +2970,11 @@
       </c>
       <c r="V35" s="2">
         <f t="shared" si="17"/>
-        <v>2.5179054220153434</v>
+        <v>6.4124700644934993</v>
       </c>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" ht="13.5">
+    <row r="36" spans="1:23">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>0.54113245597020643</v>
       </c>
       <c r="F36" s="3">
-        <v>86.2</v>
+        <v>87.4</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="15"/>
@@ -3015,11 +3014,11 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" si="3"/>
-        <v>1731.240032712386</v>
+        <v>1755.3408220308879</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="16"/>
-        <v>243.22716767869665</v>
+        <v>262.2154575604942</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -3035,11 +3034,11 @@
       </c>
       <c r="V36" s="2">
         <f t="shared" si="17"/>
-        <v>15.595741972689105</v>
+        <v>16.193068194770692</v>
       </c>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="13.5">
+    <row r="37" spans="1:23">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>0.53869425710269536</v>
       </c>
       <c r="F37" s="3">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="15"/>
@@ -3079,11 +3078,11 @@
       </c>
       <c r="L37" s="2">
         <f t="shared" si="3"/>
-        <v>1893.7329797040325</v>
+        <v>1841.4920699190936</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="16"/>
-        <v>266.05629507740946</v>
+        <v>275.08486081306427</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -3099,11 +3098,11 @@
       </c>
       <c r="V37" s="2">
         <f t="shared" si="17"/>
-        <v>16.311232175326591</v>
+        <v>16.585682404202256</v>
       </c>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="13.5">
+    <row r="38" spans="1:23">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -3121,7 +3120,7 @@
         <v>0.54012695627595519</v>
       </c>
       <c r="F38" s="3">
-        <v>63.4</v>
+        <v>63.3</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="15"/>
@@ -3143,11 +3142,11 @@
       </c>
       <c r="L38" s="2">
         <f t="shared" ref="L38:L60" si="20">F38*G38*I38*K38</f>
-        <v>398.83387071037725</v>
+        <v>398.20479520452494</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="16"/>
-        <v>56.03338122630656</v>
+        <v>59.484432462825751</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -3163,11 +3162,11 @@
       </c>
       <c r="V38" s="2">
         <f t="shared" si="17"/>
-        <v>7.4855448182685116</v>
+        <v>7.712615150701204</v>
       </c>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="13.5">
+    <row r="39" spans="1:23">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>0.54370092037490203</v>
       </c>
       <c r="F39" s="3">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G39" s="7">
         <f>C39</f>
@@ -3207,11 +3206,11 @@
       </c>
       <c r="L39" s="2">
         <f t="shared" si="20"/>
-        <v>304.00481569349358</v>
+        <v>307.51256356688009</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="16"/>
-        <v>42.71055941674657</v>
+        <v>45.936690213811438</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3227,11 +3226,11 @@
       </c>
       <c r="V39" s="2">
         <f t="shared" si="17"/>
-        <v>6.535331622553409</v>
+        <v>6.7776611167726166</v>
       </c>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="13.5">
+    <row r="40" spans="1:23">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>0.55141360694549746</v>
       </c>
       <c r="F40" s="3">
-        <v>50</v>
+        <v>49.6</v>
       </c>
       <c r="G40" s="7">
         <f>4*PI()*PI()*ABS(D40)/C40/1.175</f>
@@ -3271,11 +3270,11 @@
       </c>
       <c r="L40" s="2">
         <f t="shared" si="20"/>
-        <v>288.70436423005356</v>
+        <v>286.39472931621316</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="16"/>
-        <v>40.560952543442404</v>
+        <v>42.782076305659608</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -3291,11 +3290,11 @@
       </c>
       <c r="V40" s="2">
         <f t="shared" si="17"/>
-        <v>6.3687481143033446</v>
+        <v>6.5408008917608562</v>
       </c>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="13.5">
+    <row r="41" spans="1:23">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>0.65229693038596093</v>
       </c>
       <c r="F41" s="3">
-        <v>11.4</v>
+        <v>12.7</v>
       </c>
       <c r="G41" s="7">
         <f>4*PI()*PI()*ABS(D41)/C41/1.175</f>
@@ -3335,11 +3334,11 @@
       </c>
       <c r="L41" s="2">
         <f t="shared" si="20"/>
-        <v>248.2670863625942</v>
+        <v>276.5782453337672</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="16"/>
-        <v>34.879796621389751</v>
+        <v>41.315675133427867</v>
       </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -3355,11 +3354,11 @@
       </c>
       <c r="V41" s="2">
         <f t="shared" si="17"/>
-        <v>5.9059120058962744</v>
+        <v>6.4277270580997659</v>
       </c>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="13.5">
+    <row r="42" spans="1:23">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -3377,7 +3376,7 @@
         <v>0.64792489969455835</v>
       </c>
       <c r="F42" s="3">
-        <v>15.6</v>
+        <v>14.6</v>
       </c>
       <c r="G42" s="7">
         <f>4*PI()*PI()*ABS(D42)/C42/1.175</f>
@@ -3399,11 +3398,11 @@
       </c>
       <c r="L42" s="2">
         <f t="shared" si="20"/>
-        <v>251.06300663642608</v>
+        <v>234.96922415973214</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="16"/>
-        <v>35.272603948167038</v>
+        <v>35.100056839328907</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -3419,11 +3418,11 @@
       </c>
       <c r="V42" s="2">
         <f t="shared" si="17"/>
-        <v>5.9390743342853556</v>
+        <v>5.9245300943896728</v>
       </c>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="13.5">
+    <row r="43" spans="1:23">
       <c r="A43" s="3">
         <v>6</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>0.64649758477473851</v>
       </c>
       <c r="F43" s="3">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="G43" s="7">
         <f>4*PI()*PI()*ABS(D43)/C43/1.175</f>
@@ -3463,11 +3462,11 @@
       </c>
       <c r="L43" s="2">
         <f t="shared" si="20"/>
-        <v>104.93139243341608</v>
+        <v>102.85354307829894</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="16"/>
-        <v>14.742129860626703</v>
+        <v>15.3644172809647</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -3483,11 +3482,11 @@
       </c>
       <c r="V43" s="2">
         <f t="shared" si="17"/>
-        <v>3.8395481323492615</v>
+        <v>3.9197470940055177</v>
       </c>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="13.5">
+    <row r="44" spans="1:23">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>0.64842732823347293</v>
       </c>
       <c r="F44" s="3">
-        <v>16.3</v>
+        <v>18</v>
       </c>
       <c r="G44" s="7">
         <f>4*PI()*PI()*ABS(D44)/C44/1.175</f>
@@ -3527,11 +3526,11 @@
       </c>
       <c r="L44" s="2">
         <f t="shared" si="20"/>
-        <v>84.645757104939477</v>
+        <v>93.47384220177365</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="16"/>
-        <v>11.892139372723072</v>
+        <v>13.963263427393938</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3547,11 +3546,11 @@
       </c>
       <c r="V44" s="2">
         <f t="shared" si="17"/>
-        <v>3.4484981329157005</v>
+        <v>3.7367450310924264</v>
       </c>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="13.5">
+    <row r="45" spans="1:23">
       <c r="A45" s="3">
         <v>6</v>
       </c>
@@ -3569,7 +3568,7 @@
         <v>0.65283842913362999</v>
       </c>
       <c r="F45" s="3">
-        <v>60.2</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="G45" s="7">
         <f>C45</f>
@@ -3591,11 +3590,11 @@
       </c>
       <c r="L45" s="2">
         <f t="shared" si="20"/>
-        <v>83.618879646477723</v>
+        <v>90.147263937814017</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="16"/>
-        <v>11.747870241317049</v>
+        <v>13.466334152664393</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -3611,11 +3610,11 @@
       </c>
       <c r="V45" s="2">
         <f t="shared" si="17"/>
-        <v>3.4275166288899386</v>
+        <v>3.6696504128682874</v>
       </c>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="13.5">
+    <row r="46" spans="1:23">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -3633,7 +3632,7 @@
         <v>0.66046725884028501</v>
       </c>
       <c r="F46" s="3">
-        <v>20.399999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" ref="G46:G53" si="21">4*PI()*PI()*ABS(D46)/C46/1.175</f>
@@ -3655,11 +3654,11 @@
       </c>
       <c r="L46" s="2">
         <f t="shared" si="20"/>
-        <v>106.42676071708736</v>
+        <v>96.514464375790013</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="16"/>
-        <v>14.952218690252527</v>
+        <v>14.417476150428447</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -3675,11 +3674,11 @@
       </c>
       <c r="V46" s="2">
         <f t="shared" si="17"/>
-        <v>3.8668098854550021</v>
+        <v>3.7970351789822079</v>
       </c>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="13.5">
+    <row r="47" spans="1:23">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -3721,7 +3720,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="13.5">
+    <row r="48" spans="1:23">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -3739,7 +3738,7 @@
         <v>0.68408945820278377</v>
       </c>
       <c r="F48" s="3">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="21"/>
@@ -3761,11 +3760,11 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" si="20"/>
-        <v>86.473952088469247</v>
+        <v>85.008291883579929</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" ref="M48:M56" si="22">L48/L$5*10000</f>
-        <v>12.148988035765871</v>
+        <v>12.698666761990635</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -3781,11 +3780,11 @@
       </c>
       <c r="V48" s="2">
         <f t="shared" ref="V48:V56" si="23">SQRT(M48)</f>
-        <v>3.4855398485408071</v>
+        <v>3.5635188735280519</v>
       </c>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="13.5">
+    <row r="49" spans="1:23">
       <c r="A49" s="3">
         <v>6</v>
       </c>
@@ -3803,7 +3802,7 @@
         <v>0.70028589245122541</v>
       </c>
       <c r="F49" s="3">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="21"/>
@@ -3825,11 +3824,11 @@
       </c>
       <c r="L49" s="2">
         <f t="shared" si="20"/>
-        <v>81.099675452021074</v>
+        <v>100.40912198821657</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="22"/>
-        <v>11.393939596551407</v>
+        <v>14.999265974413936</v>
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -3845,11 +3844,11 @@
       </c>
       <c r="V49" s="2">
         <f t="shared" si="23"/>
-        <v>3.3754910156229725</v>
+        <v>3.8728885827524056</v>
       </c>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="13.5">
+    <row r="50" spans="1:23">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>0.7572805224299487</v>
       </c>
       <c r="F50" s="3">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="21"/>
@@ -3889,11 +3888,11 @@
       </c>
       <c r="L50" s="2">
         <f t="shared" si="20"/>
-        <v>707.279391864064</v>
+        <v>709.0475903437241</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="22"/>
-        <v>99.367828833696379</v>
+        <v>105.91859768807556</v>
       </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -3909,11 +3908,11 @@
       </c>
       <c r="V50" s="2">
         <f t="shared" si="23"/>
-        <v>9.9683413281095259</v>
+        <v>10.291676135988519</v>
       </c>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="13.5">
+    <row r="51" spans="1:23">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -3931,7 +3930,7 @@
         <v>0.75444431494089825</v>
       </c>
       <c r="F51" s="3">
-        <v>36</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="21"/>
@@ -3953,11 +3952,11 @@
       </c>
       <c r="L51" s="2">
         <f t="shared" si="20"/>
-        <v>470.14495527318201</v>
+        <v>480.59262094591929</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="22"/>
-        <v>66.052091973846515</v>
+        <v>71.791650043055782</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -3973,11 +3972,11 @@
       </c>
       <c r="V51" s="2">
         <f t="shared" si="23"/>
-        <v>8.1272438116403585</v>
+        <v>8.4729953406723748</v>
       </c>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="13.5">
+    <row r="52" spans="1:23">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>0.75426490834861581</v>
       </c>
       <c r="F52" s="3">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="21"/>
@@ -4017,11 +4016,11 @@
       </c>
       <c r="L52" s="2">
         <f t="shared" si="20"/>
-        <v>127.67847219240593</v>
+        <v>124.27371293394178</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="22"/>
-        <v>17.937936148719665</v>
+        <v>18.564194537453556</v>
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -4037,11 +4036,11 @@
       </c>
       <c r="V52" s="2">
         <f t="shared" si="23"/>
-        <v>4.2353200763011598</v>
+        <v>4.3086186344875728</v>
       </c>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="13.5">
+    <row r="53" spans="1:23">
       <c r="A53" s="3">
         <v>7</v>
       </c>
@@ -4059,7 +4058,7 @@
         <v>0.75628887838736603</v>
       </c>
       <c r="F53" s="3">
-        <v>22</v>
+        <v>20.3</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="21"/>
@@ -4081,11 +4080,11 @@
       </c>
       <c r="L53" s="2">
         <f t="shared" si="20"/>
-        <v>91.199723633001412</v>
+        <v>84.152472261360387</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="22"/>
-        <v>12.812926025966039</v>
+        <v>12.57082313697318</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -4101,11 +4100,11 @@
       </c>
       <c r="V53" s="2">
         <f t="shared" si="23"/>
-        <v>3.5795147752127017</v>
+        <v>3.5455356629109205</v>
       </c>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5">
+    <row r="54" spans="1:23">
       <c r="A54" s="3">
         <v>7</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>0.76030831903585805</v>
       </c>
       <c r="F54" s="3">
-        <v>36</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="G54" s="7">
         <f>C54</f>
@@ -4145,11 +4144,11 @@
       </c>
       <c r="L54" s="2">
         <f t="shared" si="20"/>
-        <v>56.493497389661279</v>
+        <v>58.376613969316658</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="22"/>
-        <v>7.936942944198849</v>
+        <v>8.7203865771699967</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -4165,11 +4164,11 @@
       </c>
       <c r="V54" s="2">
         <f t="shared" si="23"/>
-        <v>2.8172580542433185</v>
+        <v>2.9530300670954905</v>
       </c>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="13.5">
+    <row r="55" spans="1:23">
       <c r="A55" s="3">
         <v>9</v>
       </c>
@@ -4213,7 +4212,7 @@
       </c>
       <c r="M55" s="2">
         <f t="shared" si="22"/>
-        <v>37.199911505183465</v>
+        <v>39.55341145452028</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -4229,11 +4228,11 @@
       </c>
       <c r="V55" s="2">
         <f t="shared" si="23"/>
-        <v>6.099173018138071</v>
+        <v>6.2891502967030677</v>
       </c>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="13.5">
+    <row r="56" spans="1:23">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -4277,7 +4276,7 @@
       </c>
       <c r="M56" s="2">
         <f t="shared" si="22"/>
-        <v>31.418456898248927</v>
+        <v>33.406185732172808</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -4293,11 +4292,11 @@
       </c>
       <c r="V56" s="2">
         <f t="shared" si="23"/>
-        <v>5.6052169358775874</v>
+        <v>5.7798084511662502</v>
       </c>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="13.5">
+    <row r="57" spans="1:23">
       <c r="A57" s="3">
         <v>9</v>
       </c>
@@ -4339,7 +4338,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="13.5">
+    <row r="58" spans="1:23">
       <c r="A58" s="3">
         <v>9</v>
       </c>
@@ -4383,7 +4382,7 @@
       </c>
       <c r="M58" s="2">
         <f>L58/L$5*10000</f>
-        <v>9.1272228693058484</v>
+        <v>9.7046682903118633</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -4399,11 +4398,11 @@
       </c>
       <c r="V58" s="2">
         <f>SQRT(M58)</f>
-        <v>3.0211294029395446</v>
+        <v>3.1152316591726952</v>
       </c>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="13.5">
+    <row r="59" spans="1:23">
       <c r="A59" s="3">
         <v>9</v>
       </c>
@@ -4445,7 +4444,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" ht="13.5">
+    <row r="60" spans="1:23">
       <c r="A60" s="3">
         <v>9</v>
       </c>
@@ -4489,7 +4488,7 @@
       </c>
       <c r="M60" s="2">
         <f>L60/L$5*10000</f>
-        <v>4.785544027696357</v>
+        <v>5.0883075873667378</v>
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -4505,7 +4504,7 @@
       </c>
       <c r="V60" s="2">
         <f>SQRT(M60)</f>
-        <v>2.1875886331064067</v>
+        <v>2.2557277289971718</v>
       </c>
       <c r="W60" s="2"/>
     </row>
@@ -4519,24 +4518,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.5"/>
-    <col min="2" max="2" width="3.1640625"/>
-    <col min="3" max="3" width="6.1640625"/>
-    <col min="4" max="4" width="7.5"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="1026" width="11.5"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="1026" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5">
+    <row r="2" spans="1:11">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>0.13125000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5">
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>6.3266278174045482E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.5">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>0.13461538461538464</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>5.2631578947368425E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13.5">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -4761,7 +4762,7 @@
         <v>7.6586433260393882E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.5">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>1.1173184357541898E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13.5">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -4837,7 +4838,7 @@
         <v>1.7119244391971662E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.5">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>1.8656716417910446E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13.5">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -4913,7 +4914,7 @@
         <v>2.7272727272727268E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13.5">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>7.6045627376425864E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.5">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -4989,7 +4990,7 @@
         <v>4.7058823529411764E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.5">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>0.26923076923076922</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.5">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.5">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>5.2631578947368425E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.5">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>1.8581081081081079E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.5">
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>7.5653370013755161E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5">
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -5208,7 +5209,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5">
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>5.1779935275080902E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.5">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -5284,7 +5285,7 @@
         <v>2.2499999999999996E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.5">
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>2.464788732394366E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>2.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5">
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -5398,7 +5399,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.5">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>5.7971014492753624E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.5">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>2.5780189959294441E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5">
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>8.5642317380352648E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5">
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>1.2137203166226912E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.5">
+    <row r="28" spans="1:11">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -5588,7 +5589,7 @@
         <v>0.18750000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.5">
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>5.8111380145278467E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.5">
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -5653,7 +5654,7 @@
       </c>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="13.5">
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>9.7560975609756115E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.5">
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>4.4117647058823525E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.5">
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -5767,7 +5768,7 @@
         <v>0.18032786885245905</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.5">
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>7.780320366132723E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.5">
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>2.8368794326241134E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.5">
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -5881,7 +5882,7 @@
         <v>5.3712480252764615E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.5">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>1.5209125475285171E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="13.5">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -5957,7 +5958,7 @@
         <v>5.6451612903225798E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="13.5">
+    <row r="39" spans="1:11">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>6.2992125984251968E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="13.5">
+    <row r="40" spans="1:11">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -6033,7 +6034,7 @@
         <v>6.164383561643836E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="13.5">
+    <row r="41" spans="1:11">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="13.5">
+    <row r="42" spans="1:11">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -6109,7 +6110,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="13.5">
+    <row r="43" spans="1:11">
       <c r="A43" s="3">
         <v>6</v>
       </c>
@@ -6147,7 +6148,7 @@
         <v>7.24191063174114E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="13.5">
+    <row r="44" spans="1:11">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>8.1081081081081072E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="13.5">
+    <row r="45" spans="1:11">
       <c r="A45" s="3">
         <v>6</v>
       </c>
@@ -6212,7 +6213,7 @@
       </c>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="1:11" ht="13.5">
+    <row r="46" spans="1:11">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -6250,7 +6251,7 @@
         <v>5.1724137931034482E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="13.5">
+    <row r="47" spans="1:11">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -6288,7 +6289,7 @@
         <v>5.7692307692307689E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="13.5">
+    <row r="48" spans="1:11">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -6299,11 +6300,10 @@
         <v>0.7572805224299487</v>
       </c>
       <c r="D48" s="3">
-        <v>40</v>
-      </c>
-      <c r="E48" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+        <v>40.1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F48" s="7">
         <v>1.1363636363636365</v>
@@ -6316,18 +6316,18 @@
       </c>
       <c r="I48" s="8">
         <f t="shared" si="0"/>
-        <v>707.279391864064</v>
-      </c>
-      <c r="J48" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K48" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="13.5">
+        <v>709.0475903437241</v>
+      </c>
+      <c r="J48" s="8">
+        <f t="shared" si="1"/>
+        <v>19.450183276261757</v>
+      </c>
+      <c r="K48" s="6">
+        <f t="shared" si="2"/>
+        <v>2.7431421446384038E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="3">
         <v>7</v>
       </c>
@@ -6338,11 +6338,10 @@
         <v>0.75444431494089825</v>
       </c>
       <c r="D49" s="3">
-        <v>36</v>
-      </c>
-      <c r="E49" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1.8</v>
       </c>
       <c r="F49" s="7">
         <v>1.1363636363636365</v>
@@ -6355,18 +6354,18 @@
       </c>
       <c r="I49" s="8">
         <f t="shared" si="0"/>
-        <v>470.14495527318201</v>
-      </c>
-      <c r="J49" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K49" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="13.5">
+        <v>480.59262094591935</v>
+      </c>
+      <c r="J49" s="8">
+        <f t="shared" si="1"/>
+        <v>23.507247763659102</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8913043478260879E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -6377,11 +6376,10 @@
         <v>0.75426490834861581</v>
       </c>
       <c r="D50" s="3">
-        <v>15</v>
-      </c>
-      <c r="E50" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+        <v>14.6</v>
+      </c>
+      <c r="E50" s="2">
+        <v>7.3</v>
       </c>
       <c r="F50" s="7">
         <v>1.1363636363636365</v>
@@ -6394,18 +6392,18 @@
       </c>
       <c r="I50" s="8">
         <f t="shared" si="0"/>
-        <v>127.67847219240592</v>
-      </c>
-      <c r="J50" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K50" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="13.5">
+        <v>124.27371293394179</v>
+      </c>
+      <c r="J50" s="8">
+        <f t="shared" si="1"/>
+        <v>62.136856466970897</v>
+      </c>
+      <c r="K50" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -6416,11 +6414,10 @@
         <v>0.75628887838736603</v>
       </c>
       <c r="D51" s="3">
-        <v>22</v>
-      </c>
-      <c r="E51" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+        <v>20.3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2.2999999999999998</v>
       </c>
       <c r="F51" s="7">
         <v>1.1363636363636365</v>
@@ -6433,18 +6430,18 @@
       </c>
       <c r="I51" s="8">
         <f t="shared" si="0"/>
-        <v>91.199723633001412</v>
-      </c>
-      <c r="J51" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K51" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="13.5">
+        <v>84.152472261360387</v>
+      </c>
+      <c r="J51" s="8">
+        <f t="shared" si="1"/>
+        <v>9.5345165616319658</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" si="2"/>
+        <v>0.11330049261083745</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -6455,11 +6452,10 @@
         <v>0.76030831903585805</v>
       </c>
       <c r="D52" s="3">
-        <v>36</v>
-      </c>
-      <c r="E52" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.8</v>
       </c>
       <c r="F52" s="7">
         <v>1.0526315789473684</v>
@@ -6472,18 +6468,18 @@
       </c>
       <c r="I52" s="8">
         <f t="shared" si="0"/>
-        <v>56.493497389661272</v>
-      </c>
-      <c r="J52" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K52" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="13.5">
+        <v>58.376613969316651</v>
+      </c>
+      <c r="J52" s="8">
+        <f t="shared" si="1"/>
+        <v>2.8246748694830637</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -6496,9 +6492,8 @@
       <c r="D53" s="3">
         <v>16</v>
       </c>
-      <c r="E53" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E53" s="2">
+        <v>3</v>
       </c>
       <c r="F53" s="7">
         <v>1.1111111111111112</v>
@@ -6513,16 +6508,16 @@
         <f t="shared" si="0"/>
         <v>264.781178129767</v>
       </c>
-      <c r="J53" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K53" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="13.5">
+      <c r="J53" s="8">
+        <f t="shared" si="1"/>
+        <v>49.646470899331305</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18749999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="3">
         <v>9</v>
       </c>
@@ -6535,9 +6530,8 @@
       <c r="D54" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="E54" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E54" s="2">
+        <v>3</v>
       </c>
       <c r="F54" s="7">
         <v>1.1111111111111112</v>
@@ -6552,25 +6546,23 @@
         <f t="shared" si="0"/>
         <v>223.62999523207139</v>
       </c>
-      <c r="J54" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K54" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="13.5">
+      <c r="J54" s="8">
+        <f t="shared" si="1"/>
+        <v>39.697632289716815</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" si="2"/>
+        <v>0.17751479289940827</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="3">
         <v>9</v>
       </c>
       <c r="B55" s="3">
         <v>-3</v>
       </c>
-      <c r="C55" s="6">
-        <v>0.97173504619314821</v>
-      </c>
+      <c r="C55" s="6"/>
       <c r="D55" s="3" t="s">
         <v>10</v>
       </c>
@@ -6588,7 +6580,7 @@
       </c>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="1:11" ht="13.5">
+    <row r="56" spans="1:11">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -6601,9 +6593,8 @@
       <c r="D56" s="3">
         <v>10</v>
       </c>
-      <c r="E56" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E56" s="2">
+        <v>2.9</v>
       </c>
       <c r="F56" s="7">
         <v>1.1111111111111112</v>
@@ -6618,25 +6609,23 @@
         <f t="shared" si="0"/>
         <v>64.96566057827873</v>
       </c>
-      <c r="J56" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="13.5">
+      <c r="J56" s="8">
+        <f t="shared" si="1"/>
+        <v>18.840041567700833</v>
+      </c>
+      <c r="K56" s="6">
+        <f t="shared" si="2"/>
+        <v>0.29000000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="13">
         <v>9</v>
       </c>
       <c r="B57" s="13">
         <v>-1</v>
       </c>
-      <c r="C57" s="13">
-        <v>0.97594774450274746</v>
-      </c>
+      <c r="C57" s="13"/>
       <c r="D57" s="13" t="s">
         <v>10</v>
       </c>
@@ -6654,7 +6643,7 @@
       </c>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:11" ht="13.5">
+    <row r="58" spans="1:11">
       <c r="A58" s="13">
         <v>9</v>
       </c>
@@ -6667,9 +6656,8 @@
       <c r="D58" s="13">
         <v>17</v>
       </c>
-      <c r="E58" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E58" s="2">
+        <v>10</v>
       </c>
       <c r="F58" s="7">
         <v>1.04</v>
@@ -6684,21 +6672,21 @@
         <f t="shared" si="0"/>
         <v>34.007999999999996</v>
       </c>
-      <c r="J58" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K58" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="13.5">
+      <c r="J58" s="8">
+        <f t="shared" si="1"/>
+        <v>20.00470588235294</v>
+      </c>
+      <c r="K58" s="6">
+        <f t="shared" si="2"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="J59" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6710,18 +6698,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="1025" width="11.5" style="3"/>
-    <col min="1026" max="16384" width="9.33203125" style="3"/>
+    <col min="1" max="1" width="2.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.42578125" style="3"/>
+    <col min="1026" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6752,10 +6740,10 @@
         <v>0.11069326989478628</v>
       </c>
       <c r="D2" s="2">
-        <v>1040.5916752665978</v>
+        <v>35081.456712270512</v>
       </c>
       <c r="E2" s="2">
-        <v>24.425419566724909</v>
+        <v>4604.4411934855052</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6769,10 +6757,10 @@
         <v>0.109</v>
       </c>
       <c r="D3" s="2">
-        <v>181391.19617992858</v>
+        <v>66942.690501986275</v>
       </c>
       <c r="E3" s="2">
-        <v>2697.8970284400239</v>
+        <v>4235.2148790176961</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6786,10 +6774,10 @@
         <v>0.12184005909387931</v>
       </c>
       <c r="D4" s="2">
-        <v>289.98778998778994</v>
+        <v>12069.691654578781</v>
       </c>
       <c r="E4" s="2">
-        <v>12.146251919325721</v>
+        <v>1624.7661842702207</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6803,10 +6791,10 @@
         <v>0.18243903091169938</v>
       </c>
       <c r="D5" s="2">
-        <v>4.4726930320150666</v>
+        <v>549.44831569353391</v>
       </c>
       <c r="E5" s="2">
-        <v>1.4511332398702863</v>
+        <v>28.91833240492284</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6820,10 +6808,10 @@
         <v>0.22361797781037193</v>
       </c>
       <c r="D6" s="2">
-        <v>45.015371102327641</v>
+        <v>2135.9364899069014</v>
       </c>
       <c r="E6" s="2">
-        <v>4.0588993216254643</v>
+        <v>163.58375743269488</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6837,10 +6825,10 @@
         <v>0.21651789764358972</v>
       </c>
       <c r="D7" s="2">
-        <v>1639.6103896103898</v>
+        <v>40526.677474221375</v>
       </c>
       <c r="E7" s="2">
-        <v>48.641136481048122</v>
+        <v>452.81203881811587</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6854,10 +6842,10 @@
         <v>0.218</v>
       </c>
       <c r="D8" s="2">
-        <v>7495.5908289241634</v>
+        <v>5861.7777777777783</v>
       </c>
       <c r="E8" s="2">
-        <v>234.6960526553691</v>
+        <v>100.34920634920634</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6871,10 +6859,10 @@
         <v>0.22808989455914089</v>
       </c>
       <c r="D9" s="2">
-        <v>478.17770822465667</v>
+        <v>10820.22357484422</v>
       </c>
       <c r="E9" s="2">
-        <v>12.895493804722074</v>
+        <v>201.86984281425782</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6888,10 +6876,10 @@
         <v>0.2464893506827425</v>
       </c>
       <c r="D10" s="2">
-        <v>96.021947873799732</v>
+        <v>4246.7433599443866</v>
       </c>
       <c r="E10" s="2">
-        <v>5.7384089611390641</v>
+        <v>115.8202734530287</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6905,10 +6893,10 @@
         <v>0.26983328186122629</v>
       </c>
       <c r="D11" s="2">
-        <v>23.148148148148152</v>
+        <v>1484.4787074033452</v>
       </c>
       <c r="E11" s="2">
-        <v>2.8175028678249285</v>
+        <v>11.288811463143311</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6922,10 +6910,10 @@
         <v>0.29829180344085893</v>
       </c>
       <c r="D12" s="2">
-        <v>7.0301783264746227</v>
+        <v>627.53162181434902</v>
       </c>
       <c r="E12" s="2">
-        <v>1.552706642341807</v>
+        <v>29.530899850087014</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6939,10 +6927,10 @@
         <v>0.32908357601071497</v>
       </c>
       <c r="D13" s="2">
-        <v>2.1806226516371439</v>
+        <v>225.77645755025671</v>
       </c>
       <c r="E13" s="2">
-        <v>0.85531057326771076</v>
+        <v>60.785969340453725</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6956,10 +6944,10 @@
         <v>0.36274646793594006</v>
       </c>
       <c r="D14" s="2">
-        <v>0.99265435775263033</v>
+        <v>120.53566892083519</v>
       </c>
       <c r="E14" s="2">
-        <v>0.57310926066073631</v>
+        <v>20.089278153472531</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6973,10 +6961,10 @@
         <v>0.32582971012478285</v>
       </c>
       <c r="D15" s="2">
-        <v>234.1039575082128</v>
+        <v>7331.0765025101282</v>
       </c>
       <c r="E15" s="2">
-        <v>8.4779105778048418</v>
+        <v>385.8461317110594</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6990,10 +6978,10 @@
         <v>0.32386725675807365</v>
       </c>
       <c r="D16" s="2">
-        <v>924.90252064720141</v>
+        <v>14724.766362085593</v>
       </c>
       <c r="E16" s="2">
-        <v>16.851262165807121</v>
+        <v>273.60207767388766</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7007,10 +6995,10 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="D17" s="2">
-        <v>1051.7408123791104</v>
+        <v>1146.0444874274663</v>
       </c>
       <c r="E17" s="2">
-        <v>16.80903740700694</v>
+        <v>86.702127659574487</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7023,9 +7011,7 @@
       <c r="C18" s="6">
         <v>0.33477305745833252</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
@@ -7039,10 +7025,10 @@
         <v>0.34973847372000699</v>
       </c>
       <c r="D19" s="2">
-        <v>24.038461538461537</v>
+        <v>703.46624394177479</v>
       </c>
       <c r="E19" s="2">
-        <v>2.6709401709401708</v>
+        <v>36.425436579509373</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7056,10 +7042,10 @@
         <v>0.36832865758721517</v>
       </c>
       <c r="D20" s="2">
-        <v>29.009377967711302</v>
+        <v>1342.1981522232263</v>
       </c>
       <c r="E20" s="2">
-        <v>2.9341346054850996</v>
+        <v>30.199458425022588</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7073,10 +7059,10 @@
         <v>0.39177544588705399</v>
       </c>
       <c r="D21" s="2">
-        <v>20.291256446319736</v>
+        <v>1229.5824758435067</v>
       </c>
       <c r="E21" s="2">
-        <v>2.4383668801414142</v>
+        <v>30.306610320086431</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7090,10 +7076,10 @@
         <v>0.41759909003732276</v>
       </c>
       <c r="D22" s="2">
-        <v>8.9369432723863103</v>
+        <v>665.14906927564016</v>
       </c>
       <c r="E22" s="2">
-        <v>1.618225653010323</v>
+        <v>15.963577662615362</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7107,10 +7093,10 @@
         <v>0.44616140577149882</v>
       </c>
       <c r="D23" s="2">
-        <v>2.5638771683075476</v>
+        <v>251.20706827324392</v>
       </c>
       <c r="E23" s="2">
-        <v>0.86674867895857</v>
+        <v>31.40088353415549</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7124,10 +7110,10 @@
         <v>0.43667048184201473</v>
       </c>
       <c r="D24" s="2">
-        <v>99.38131631253323</v>
+        <v>3664.8572555730143</v>
       </c>
       <c r="E24" s="2">
-        <v>5.2746126036272143</v>
+        <v>212.45549307669648</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7141,10 +7127,10 @@
         <v>0.43188534077043261</v>
       </c>
       <c r="D25" s="2">
-        <v>522.23328355732531</v>
+        <v>12723.998953324493</v>
       </c>
       <c r="E25" s="2">
-        <v>12.017276471235421</v>
+        <v>328.02711005856906</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7158,10 +7144,10 @@
         <v>0.43146721383800929</v>
       </c>
       <c r="D26" s="2">
-        <v>296.99684751949565</v>
+        <v>3356.4007602628076</v>
       </c>
       <c r="E26" s="2">
-        <v>9.0625350412996735</v>
+        <v>287.44993916608428</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7175,10 +7161,10 @@
         <v>0.43506536697007098</v>
       </c>
       <c r="D27" s="2">
-        <v>1194.21394931599</v>
+        <v>1848.954631998844</v>
       </c>
       <c r="E27" s="2">
-        <v>17.250475830476677</v>
+        <v>22.441138013706283</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7192,10 +7178,10 @@
         <v>0.44309141269042895</v>
       </c>
       <c r="D28" s="2">
-        <v>31.3174050107848</v>
+        <v>313.09276225487736</v>
       </c>
       <c r="E28" s="2">
-        <v>2.942840088185493</v>
+        <v>58.704892922789519</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7209,10 +7195,10 @@
         <v>0.45623971631770233</v>
       </c>
       <c r="D29" s="2">
-        <v>30.142138156075436</v>
+        <v>656.55445074163447</v>
       </c>
       <c r="E29" s="2">
-        <v>2.887093221865646</v>
+        <v>38.153285273121625</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7225,9 +7211,7 @@
       <c r="C30" s="6">
         <v>0</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
@@ -7241,10 +7225,10 @@
         <v>0.49272653618550721</v>
       </c>
       <c r="D31" s="2">
-        <v>1.434308663224326</v>
+        <v>127.02363271819881</v>
       </c>
       <c r="E31" s="2">
-        <v>0.62598362087203774</v>
+        <v>12.392549533482812</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7258,10 +7242,10 @@
         <v>0.51435757590665054</v>
       </c>
       <c r="D32" s="2">
-        <v>2.1856132011037346</v>
+        <v>258.91441566729901</v>
       </c>
       <c r="E32" s="2">
-        <v>0.77273095777564416</v>
+        <v>11.422694808851427</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7275,10 +7259,10 @@
         <v>0.53945835340385007</v>
       </c>
       <c r="D33" s="2">
-        <v>0.68300412534491717</v>
+        <v>275.26681924671351</v>
       </c>
       <c r="E33" s="2">
-        <v>0.43196973747621498</v>
+        <v>49.638278880554907</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7292,10 +7276,10 @@
         <v>0.54113245597020643</v>
       </c>
       <c r="D34" s="2">
-        <v>57.010582010582013</v>
+        <v>1755.3408220308879</v>
       </c>
       <c r="E34" s="2">
-        <v>3.8835762581754492</v>
+        <v>136.57113947151072</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7309,10 +7293,10 @@
         <v>0.53869425710269536</v>
       </c>
       <c r="D35" s="2">
-        <v>95.899470899470884</v>
+        <v>1841.4920699190939</v>
       </c>
       <c r="E35" s="2">
-        <v>5.0368869747777172</v>
+        <v>52.240909784938829</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7326,10 +7310,10 @@
         <v>0.54012695627595519</v>
       </c>
       <c r="D36" s="2">
-        <v>41.93121693121693</v>
+        <v>398.20479520452488</v>
       </c>
       <c r="E36" s="2">
-        <v>3.330602728046077</v>
+        <v>21.388567198979221</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -7343,10 +7327,10 @@
         <v>0.54370092037490203</v>
       </c>
       <c r="D37" s="2">
-        <v>155.31660692951016</v>
+        <v>307.51256356688003</v>
       </c>
       <c r="E37" s="2">
-        <v>6.0920185347584059</v>
+        <v>4.6769971645152859</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -7360,10 +7344,10 @@
         <v>0.55141360694549746</v>
       </c>
       <c r="D38" s="2">
-        <v>33.06878306878307</v>
+        <v>286.39472931621316</v>
       </c>
       <c r="E38" s="2">
-        <v>2.9577618749997221</v>
+        <v>16.167444396882999</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -7377,10 +7361,10 @@
         <v>0.65229693038596093</v>
       </c>
       <c r="D39" s="2">
-        <v>7.3643410852713176</v>
+        <v>276.5782453337672</v>
       </c>
       <c r="E39" s="2">
-        <v>1.3794674744226498</v>
+        <v>17.422251674568013</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7394,10 +7378,10 @@
         <v>0.64792489969455835</v>
       </c>
       <c r="D40" s="2">
-        <v>10.077519379844961</v>
+        <v>234.96922415973214</v>
       </c>
       <c r="E40" s="2">
-        <v>1.6136945732295604</v>
+        <v>14.484404229024584</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -7411,10 +7395,10 @@
         <v>0.64649758477473851</v>
       </c>
       <c r="D41" s="2">
-        <v>6.5245478036175708</v>
+        <v>102.85354307829894</v>
       </c>
       <c r="E41" s="2">
-        <v>1.298433542780477</v>
+        <v>18.700644196054352</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -7428,10 +7412,10 @@
         <v>0.64842732823347293</v>
       </c>
       <c r="D42" s="2">
-        <v>10.529715762273902</v>
+        <v>93.47384220177365</v>
       </c>
       <c r="E42" s="2">
-        <v>1.649501981240789</v>
+        <v>15.578973700295608</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7445,10 +7429,10 @@
         <v>0.65283842913362999</v>
       </c>
       <c r="D43" s="2">
-        <v>35.579196217494086</v>
+        <v>90.147263937814017</v>
       </c>
       <c r="E43" s="2">
-        <v>2.9001995617932148</v>
+        <v>6.5283842913362999</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -7462,10 +7446,10 @@
         <v>0.66046725884028501</v>
       </c>
       <c r="D44" s="2">
-        <v>13.178294573643411</v>
+        <v>96.514464375790013</v>
       </c>
       <c r="E44" s="2">
-        <v>1.8453303432927262</v>
+        <v>7.8254971115505407</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -7478,9 +7462,7 @@
       <c r="C45" s="6">
         <v>0.67066683233927715</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5">
@@ -7494,10 +7476,10 @@
         <v>0.68408945820278377</v>
       </c>
       <c r="D46" s="2">
-        <v>3.7675606641123882</v>
+        <v>85.008291883579929</v>
       </c>
       <c r="E46" s="2">
-        <v>0.98098923982996267</v>
+        <v>4.3969806146679273</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -7511,10 +7493,10 @@
         <v>0.70028589245122541</v>
       </c>
       <c r="D47" s="2">
-        <v>2.6819923371647509</v>
+        <v>100.40912198821657</v>
       </c>
       <c r="E47" s="2">
-        <v>0.82768080439436265</v>
+        <v>5.7928339608586477</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -7528,10 +7510,10 @@
         <v>0.7572805224299487</v>
       </c>
       <c r="D48" s="2">
-        <v>24.757377698554169</v>
+        <v>709.0475903437241</v>
       </c>
       <c r="E48" s="2">
-        <v>2.4757377698554168</v>
+        <v>19.450183276261757</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -7545,10 +7527,10 @@
         <v>0.75444431494089825</v>
       </c>
       <c r="D49" s="2">
-        <v>22.281639928698752</v>
+        <v>480.59262094591935</v>
       </c>
       <c r="E49" s="2">
-        <v>2.348691072614661</v>
+        <v>23.507247763659102</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7562,10 +7544,10 @@
         <v>0.75426490834861581</v>
       </c>
       <c r="D50" s="2">
-        <v>9.2840166369578139</v>
+        <v>124.27371293394179</v>
       </c>
       <c r="E50" s="2">
-        <v>1.516073568270436</v>
+        <v>62.136856466970897</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -7579,10 +7561,10 @@
         <v>0.75628887838736603</v>
       </c>
       <c r="D51" s="2">
-        <v>13.616557734204795</v>
+        <v>84.152472261360387</v>
       </c>
       <c r="E51" s="2">
-        <v>1.8360562703247334</v>
+        <v>9.5345165616319658</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -7596,10 +7578,10 @@
         <v>0.76030831903585805</v>
       </c>
       <c r="D52" s="2">
-        <v>20.639834881320947</v>
+        <v>58.376613969316651</v>
       </c>
       <c r="E52" s="2">
-        <v>2.1756296251588432</v>
+        <v>2.8246748694830637</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -7613,10 +7595,10 @@
         <v>0.97500051282037792</v>
       </c>
       <c r="D53" s="2">
-        <v>9.6828854998789637</v>
+        <v>264.781178129767</v>
       </c>
       <c r="E53" s="2">
-        <v>1.5309986251117789</v>
+        <v>49.646470899331305</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -7630,10 +7612,10 @@
         <v>0.97251118245498847</v>
       </c>
       <c r="D54" s="2">
-        <v>10.227547809247156</v>
+        <v>223.62999523207139</v>
       </c>
       <c r="E54" s="2">
-        <v>1.5734688937303316</v>
+        <v>39.697632289716815</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -7646,9 +7628,7 @@
       <c r="C55" s="6">
         <v>0.97173504619314821</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5">
@@ -7662,10 +7642,10 @@
         <v>0.97280881986133327</v>
       </c>
       <c r="D56" s="2">
-        <v>6.0518034374243523</v>
+        <v>64.96566057827873</v>
       </c>
       <c r="E56" s="2">
-        <v>1.2103606874848705</v>
+        <v>18.840041567700833</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -7678,9 +7658,7 @@
       <c r="C57" s="14">
         <v>0.97594774450274746</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5">
@@ -7694,10 +7672,10 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="D58" s="2">
-        <v>9.6296296296296298</v>
+        <v>34.007999999999996</v>
       </c>
       <c r="E58" s="2">
-        <v>1.4771177562986393</v>
+        <v>20.00470588235294</v>
       </c>
     </row>
   </sheetData>

--- a/ripple/chess13a_analysis/085_ver2.xlsx
+++ b/ripple/chess13a_analysis/085_ver2.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="382" activeTab="2"/>
+    <workbookView xWindow="1065" yWindow="375" windowWidth="16380" windowHeight="8190" tabRatio="382" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="everything" sheetId="1" r:id="rId1"/>
     <sheet name="cleaned up" sheetId="2" r:id="rId2"/>
     <sheet name="final version" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -501,38 +501,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1"/>
-    <col min="20" max="20" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" customWidth="1"/>
+    <col min="20" max="20" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" ht="13.5">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" ht="13.5">
       <c r="M2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
@@ -607,7 +607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="13.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -689,7 +689,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" ht="13.5">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -771,7 +771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" ht="13.5">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -853,7 +853,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" ht="13.5">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -936,7 +936,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" ht="13.5">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" ht="13.5">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" ht="13.5">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" ht="13.5">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" ht="13.5">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" ht="13.5">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" ht="13.5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" ht="13.5">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="W15" s="11"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" ht="13.5">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="W16" s="11"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" ht="13.5">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" ht="13.5">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" ht="13.5">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" ht="13.5">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="V20" s="10"/>
       <c r="W20" s="11"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" ht="13.5">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" ht="13.5">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" ht="13.5">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" ht="13.5">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" ht="13.5">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" ht="13.5">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" ht="13.5">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" ht="13.5">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" ht="13.5">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" ht="13.5">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" ht="13.5">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" ht="13.5">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" ht="13.5">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" ht="13.5">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" ht="13.5">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" ht="13.5">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" ht="13.5">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" ht="13.5">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" ht="13.5">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" ht="13.5">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" ht="13.5">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" ht="13.5">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" ht="13.5">
       <c r="A43" s="3">
         <v>6</v>
       </c>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" ht="13.5">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" ht="13.5">
       <c r="A45" s="3">
         <v>6</v>
       </c>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" ht="13.5">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" ht="13.5">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" ht="13.5">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" ht="13.5">
       <c r="A49" s="3">
         <v>6</v>
       </c>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" ht="13.5">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" ht="13.5">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" ht="13.5">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" ht="13.5">
       <c r="A53" s="3">
         <v>7</v>
       </c>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" ht="13.5">
       <c r="A54" s="3">
         <v>7</v>
       </c>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" ht="13.5">
       <c r="A55" s="3">
         <v>9</v>
       </c>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" ht="13.5">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" ht="13.5">
       <c r="A57" s="3">
         <v>9</v>
       </c>
@@ -4338,7 +4338,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" ht="13.5">
       <c r="A58" s="3">
         <v>9</v>
       </c>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" ht="13.5">
       <c r="A59" s="3">
         <v>9</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" ht="13.5">
       <c r="A60" s="3">
         <v>9</v>
       </c>
@@ -4519,25 +4519,25 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="1026" width="11.42578125"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="1026" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="13.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="13.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0.13125000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="13.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>170059</v>
       </c>
       <c r="E3" s="2">
-        <v>10759</v>
+        <v>1759</v>
       </c>
       <c r="F3" s="7">
         <v>1.4084507042253522</v>
@@ -4641,14 +4641,14 @@
       </c>
       <c r="J3" s="8">
         <f>E3*$F3*$G3*$H3</f>
-        <v>4235.2148790176961</v>
+        <v>692.41964608161788</v>
       </c>
       <c r="K3" s="6">
         <f>J3/I3</f>
-        <v>6.3266278174045482E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>1.0343469031336183E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>0.13461538461538464</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="13.5">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>5.2631578947368425E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="13.5">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>7.6586433260393882E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="13.5">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>1.1173184357541898E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="13.5">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -4820,25 +4820,25 @@
         <v>1.1904761904761905</v>
       </c>
       <c r="G8" s="7">
-        <v>2.2222222222222223</v>
+        <v>2.2222222222222201</v>
       </c>
       <c r="H8" s="7">
         <v>0.218</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
-        <v>5861.7777777777783</v>
+        <v>5861.7777777777719</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="1"/>
-        <v>100.34920634920634</v>
+        <v>100.34920634920624</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="2"/>
         <v>1.7119244391971662E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="13.5">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>1.8656716417910446E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="13.5">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>2.7272727272727268E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="13.5">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>7.6045627376425864E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="13.5">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>4.7058823529411764E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="13.5">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>0.26923076923076922</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="13.5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="13.5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>5.2631578947368425E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="13.5">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>1.8581081081081079E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="13.5">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>7.5653370013755161E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="13.5">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="13.5">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>5.1779935275080902E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="13.5">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>2.2499999999999996E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="13.5">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>2.464788732394366E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="13.5">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>2.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="13.5">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="13.5">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>5.7971014492753624E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="13.5">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>2.5780189959294441E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="13.5">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>8.5642317380352648E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="13.5">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>1.2137203166226912E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="13.5">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>0.18750000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="13.5">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>5.8111380145278467E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="13.5">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="13.5">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>9.7560975609756115E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="13.5">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>4.4117647058823525E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="13.5">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>0.18032786885245905</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="13.5">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>7.780320366132723E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="13.5">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>2.8368794326241134E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="13.5">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>5.3712480252764615E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="13.5">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>1.5209125475285171E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="13.5">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>5.6451612903225798E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="13.5">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>6.2992125984251968E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" ht="13.5">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>6.164383561643836E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" ht="13.5">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="13.5">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="13.5">
       <c r="A43" s="3">
         <v>6</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>7.24191063174114E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="13.5">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>8.1081081081081072E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="13.5">
       <c r="A45" s="3">
         <v>6</v>
       </c>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="13.5">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>5.1724137931034482E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="13.5">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>5.7692307692307689E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="13.5">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>2.7431421446384038E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" ht="13.5">
       <c r="A49" s="3">
         <v>7</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>4.8913043478260879E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" ht="13.5">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="13.5">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0.11330049261083745</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" ht="13.5">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>4.8387096774193547E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="13.5">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>0.18749999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" ht="13.5">
       <c r="A54" s="3">
         <v>9</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>0.17751479289940827</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" ht="13.5">
       <c r="A55" s="3">
         <v>9</v>
       </c>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" ht="13.5">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" ht="13.5">
       <c r="A57" s="13">
         <v>9</v>
       </c>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" ht="13.5">
       <c r="A58" s="13">
         <v>9</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" ht="13.5">
       <c r="J59" s="8"/>
     </row>
   </sheetData>
@@ -6699,17 +6699,17 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="1025" width="11.42578125" style="3"/>
-    <col min="1026" max="16384" width="9.28515625" style="3"/>
+    <col min="1" max="1" width="2.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.5" style="3"/>
+    <col min="1026" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6760,7 +6760,7 @@
         <v>66942.690501986275</v>
       </c>
       <c r="E3" s="2">
-        <v>4235.2148790176961</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:5">
